--- a/data_exploration/acl/tag_stats/tag_stats_isolating.xlsx
+++ b/data_exploration/acl/tag_stats/tag_stats_isolating.xlsx
@@ -81,13 +81,13 @@
     <t>_</t>
   </si>
   <si>
-    <t>INTJ</t>
+    <t>SCONJ</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
-    <t>SCONJ</t>
+    <t>INTJ</t>
   </si>
   <si>
     <t>TRAIN</t>
@@ -856,25 +856,25 @@
         <v>4</v>
       </c>
       <c r="L3">
-        <v>5410</v>
+        <v>3312</v>
       </c>
       <c r="M3" s="1">
-        <v>25.26266635535839</v>
+        <v>27.57242757242757</v>
       </c>
       <c r="N3" s="1">
-        <v>25.26266635535839</v>
+        <v>27.57242757242757</v>
       </c>
       <c r="P3" t="s">
         <v>4</v>
       </c>
       <c r="Q3">
-        <v>36145</v>
+        <v>34047</v>
       </c>
       <c r="R3" s="1">
-        <v>27.2393627443592</v>
+        <v>27.61515439083145</v>
       </c>
       <c r="S3" s="1">
-        <v>27.2393627443592</v>
+        <v>27.61515439083145</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -906,25 +906,25 @@
         <v>5</v>
       </c>
       <c r="L4">
-        <v>3467</v>
+        <v>1769</v>
       </c>
       <c r="M4" s="1">
-        <v>16.18958673826757</v>
+        <v>14.72693972693973</v>
       </c>
       <c r="N4" s="1">
-        <v>41.45225309362596</v>
+        <v>42.2993672993673</v>
       </c>
       <c r="P4" t="s">
         <v>5</v>
       </c>
       <c r="Q4">
-        <v>20173</v>
+        <v>18475</v>
       </c>
       <c r="R4" s="1">
-        <v>15.20264669088278</v>
+        <v>14.98487318620175</v>
       </c>
       <c r="S4" s="1">
-        <v>42.44200943524199</v>
+        <v>42.6000275770332</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -956,25 +956,25 @@
         <v>6</v>
       </c>
       <c r="L5">
-        <v>2902</v>
+        <v>1688</v>
       </c>
       <c r="M5" s="1">
-        <v>13.55124912444548</v>
+        <v>14.05261405261405</v>
       </c>
       <c r="N5" s="1">
-        <v>55.00350221807145</v>
+        <v>56.35198135198135</v>
       </c>
       <c r="P5" t="s">
         <v>6</v>
       </c>
       <c r="Q5">
-        <v>18279</v>
+        <v>17065</v>
       </c>
       <c r="R5" s="1">
-        <v>13.77530257585121</v>
+        <v>13.84123739770137</v>
       </c>
       <c r="S5" s="1">
-        <v>56.21731201109319</v>
+        <v>56.44126497473457</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1006,25 +1006,25 @@
         <v>7</v>
       </c>
       <c r="L6">
-        <v>1881</v>
+        <v>1359</v>
       </c>
       <c r="M6" s="1">
-        <v>8.783562923184682</v>
+        <v>11.31368631368631</v>
       </c>
       <c r="N6" s="1">
-        <v>63.78706514125613</v>
+        <v>67.66566766566767</v>
       </c>
       <c r="P6" t="s">
         <v>7</v>
       </c>
       <c r="Q6">
-        <v>13890</v>
+        <v>13368</v>
       </c>
       <c r="R6" s="1">
-        <v>10.46769258594963</v>
+        <v>10.84264058203762</v>
       </c>
       <c r="S6" s="1">
-        <v>66.68500459704282</v>
+        <v>67.2839055567722</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1056,25 +1056,25 @@
         <v>8</v>
       </c>
       <c r="L7">
-        <v>1361</v>
+        <v>1006</v>
       </c>
       <c r="M7" s="1">
-        <v>6.355358393649311</v>
+        <v>8.374958374958375</v>
       </c>
       <c r="N7" s="1">
-        <v>70.14242353490545</v>
+        <v>76.04062604062605</v>
       </c>
       <c r="P7" t="s">
         <v>8</v>
       </c>
       <c r="Q7">
-        <v>11098</v>
+        <v>10743</v>
       </c>
       <c r="R7" s="1">
-        <v>8.363603478680272</v>
+        <v>8.713531401318832</v>
       </c>
       <c r="S7" s="1">
-        <v>75.0486080757231</v>
+        <v>75.99743695809103</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1103,28 +1103,28 @@
         <v>81.90002369106845</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L8">
-        <v>1288</v>
+        <v>653</v>
       </c>
       <c r="M8" s="1">
-        <v>6.014475834695307</v>
+        <v>5.436230436230436</v>
       </c>
       <c r="N8" s="1">
-        <v>76.15689936960075</v>
+        <v>81.47685647685648</v>
       </c>
       <c r="P8" t="s">
         <v>9</v>
       </c>
       <c r="Q8">
-        <v>6880</v>
+        <v>6660</v>
       </c>
       <c r="R8" s="1">
-        <v>5.184861410463171</v>
+        <v>5.401854149937952</v>
       </c>
       <c r="S8" s="1">
-        <v>80.23346948618627</v>
+        <v>81.39929110802898</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1156,25 +1156,25 @@
         <v>10</v>
       </c>
       <c r="L9">
-        <v>1283</v>
+        <v>549</v>
       </c>
       <c r="M9" s="1">
-        <v>5.991127714219005</v>
+        <v>4.57042957042957</v>
       </c>
       <c r="N9" s="1">
-        <v>82.14802708381976</v>
+        <v>86.04728604728605</v>
       </c>
       <c r="P9" t="s">
         <v>10</v>
       </c>
       <c r="Q9">
-        <v>6482</v>
+        <v>5748</v>
       </c>
       <c r="R9" s="1">
-        <v>4.884923206776493</v>
+        <v>4.662140788865368</v>
       </c>
       <c r="S9" s="1">
-        <v>85.11839269296276</v>
+        <v>86.06143189689435</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1203,28 +1203,28 @@
         <v>91.12374634762693</v>
       </c>
       <c r="K10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L10">
-        <v>873</v>
+        <v>535</v>
       </c>
       <c r="M10" s="1">
-        <v>4.076581835162269</v>
+        <v>4.453879453879454</v>
       </c>
       <c r="N10" s="1">
-        <v>86.22460891898203</v>
+        <v>90.5011655011655</v>
       </c>
       <c r="P10" t="s">
         <v>11</v>
       </c>
       <c r="Q10">
-        <v>6374</v>
+        <v>5621</v>
       </c>
       <c r="R10" s="1">
-        <v>4.803532940449455</v>
+        <v>4.559132458979163</v>
       </c>
       <c r="S10" s="1">
-        <v>89.92192563341222</v>
+        <v>90.62056435587351</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1253,28 +1253,28 @@
         <v>93.61130853668166</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11">
-        <v>710</v>
+        <v>281</v>
       </c>
       <c r="M11" s="1">
-        <v>3.315433107634835</v>
+        <v>2.339327339327339</v>
       </c>
       <c r="N11" s="1">
-        <v>89.54004202661686</v>
+        <v>92.84049284049284</v>
       </c>
       <c r="P11" t="s">
         <v>12</v>
       </c>
       <c r="Q11">
-        <v>3412</v>
+        <v>3034</v>
       </c>
       <c r="R11" s="1">
-        <v>2.571329525072724</v>
+        <v>2.460844668305067</v>
       </c>
       <c r="S11" s="1">
-        <v>92.49325515848494</v>
+        <v>93.08140902417858</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1306,25 +1306,25 @@
         <v>12</v>
       </c>
       <c r="L12">
-        <v>650</v>
+        <v>272</v>
       </c>
       <c r="M12" s="1">
-        <v>3.035255661919216</v>
+        <v>2.264402264402265</v>
       </c>
       <c r="N12" s="1">
-        <v>92.57529768853607</v>
+        <v>95.10489510489511</v>
       </c>
       <c r="P12" t="s">
         <v>13</v>
       </c>
       <c r="Q12">
-        <v>3023</v>
+        <v>2686</v>
       </c>
       <c r="R12" s="1">
-        <v>2.278173843579966</v>
+        <v>2.178585622632633</v>
       </c>
       <c r="S12" s="1">
-        <v>94.77142900206491</v>
+        <v>95.25999464681122</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1353,28 +1353,28 @@
         <v>97.06230751006869</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L13">
-        <v>618</v>
+        <v>191</v>
       </c>
       <c r="M13" s="1">
-        <v>2.885827690870885</v>
+        <v>1.59007659007659</v>
       </c>
       <c r="N13" s="1">
-        <v>95.46112537940695</v>
+        <v>96.6949716949717</v>
       </c>
       <c r="P13" t="s">
         <v>14</v>
       </c>
       <c r="Q13">
-        <v>2318</v>
+        <v>1776</v>
       </c>
       <c r="R13" s="1">
-        <v>1.746876271722912</v>
+        <v>1.440494439983454</v>
       </c>
       <c r="S13" s="1">
-        <v>96.51830527378782</v>
+        <v>96.70048908679468</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1403,28 +1403,28 @@
         <v>98.35741925294163</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L14">
-        <v>355</v>
+        <v>168</v>
       </c>
       <c r="M14" s="1">
-        <v>1.657716553817418</v>
+        <v>1.398601398601399</v>
       </c>
       <c r="N14" s="1">
-        <v>97.11884193322437</v>
+        <v>98.0935730935731</v>
       </c>
       <c r="P14" t="s">
         <v>15</v>
       </c>
       <c r="Q14">
-        <v>1832</v>
+        <v>1740</v>
       </c>
       <c r="R14" s="1">
-        <v>1.38062007325124</v>
+        <v>1.411295228362168</v>
       </c>
       <c r="S14" s="1">
-        <v>97.89892534703905</v>
+        <v>98.11178431515684</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1453,28 +1453,28 @@
         <v>99.28926794598435</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L15">
-        <v>306</v>
+        <v>138</v>
       </c>
       <c r="M15" s="1">
-        <v>1.428904973149661</v>
+        <v>1.148851148851149</v>
       </c>
       <c r="N15" s="1">
-        <v>98.54774690637403</v>
+        <v>99.24242424242425</v>
       </c>
       <c r="P15" t="s">
         <v>16</v>
       </c>
       <c r="Q15">
-        <v>1514</v>
+        <v>1297</v>
       </c>
       <c r="R15" s="1">
-        <v>1.140970955732739</v>
+        <v>1.051982707578007</v>
       </c>
       <c r="S15" s="1">
-        <v>99.03989630277179</v>
+        <v>99.16376702273485</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1503,28 +1503,28 @@
         <v>99.92892679459842</v>
       </c>
       <c r="K16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L16">
-        <v>283</v>
+        <v>88</v>
       </c>
       <c r="M16" s="1">
-        <v>1.321503618958674</v>
+        <v>0.7326007326007326</v>
       </c>
       <c r="N16" s="1">
-        <v>99.8692505253327</v>
+        <v>99.97502497502498</v>
       </c>
       <c r="P16" t="s">
         <v>17</v>
       </c>
       <c r="Q16">
-        <v>1212</v>
+        <v>994</v>
       </c>
       <c r="R16" s="1">
-        <v>0.9133796554478725</v>
+        <v>0.8062226764321808</v>
       </c>
       <c r="S16" s="1">
-        <v>99.95327595821966</v>
+        <v>99.96998969916703</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1553,28 +1553,28 @@
         <v>99.99999999999999</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="M17" s="1">
-        <v>0.1307494746672893</v>
+        <v>0.02497502497502498</v>
       </c>
       <c r="N17" s="1">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="P17" t="s">
         <v>18</v>
       </c>
       <c r="Q17">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R17" s="1">
-        <v>0.02562286162147498</v>
+        <v>0.03001030083298862</v>
       </c>
       <c r="S17" s="1">
-        <v>99.97889881984113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1615,13 +1615,13 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R18" s="1">
-        <v>0.02110118015886174</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1">
         <v>100</v>
@@ -1653,7 +1653,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>245</v>
@@ -2393,7 +2393,7 @@
         <v>98.5506531920138</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G13">
         <v>139</v>
@@ -2417,7 +2417,7 @@
         <v>98.19322459222084</v>
       </c>
       <c r="P13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q13">
         <v>506</v>
@@ -2455,7 +2455,7 @@
         <v>99.29650859822823</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L14">
         <v>122</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -2543,7 +2543,7 @@
         <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -2555,7 +2555,7 @@
         <v>99.99999999999999</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L16">
         <v>7</v>
@@ -2567,7 +2567,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q16">
         <v>20</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2593,7 +2593,7 @@
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>216</v>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>113</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3552,49 +3552,49 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>4961</v>
+        <v>21624</v>
       </c>
       <c r="C3" s="1">
-        <v>26.75836030204962</v>
+        <v>22.17186682935332</v>
       </c>
       <c r="D3" s="1">
-        <v>26.75836030204962</v>
+        <v>22.17186682935332</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>2700</v>
+        <v>2820</v>
       </c>
       <c r="H3" s="1">
-        <v>26.43171806167401</v>
+        <v>22.35965746907707</v>
       </c>
       <c r="I3" s="1">
-        <v>26.43171806167401</v>
+        <v>22.35965746907707</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
       </c>
       <c r="L3">
-        <v>4681</v>
+        <v>2555</v>
       </c>
       <c r="M3" s="1">
-        <v>23.58186397984887</v>
+        <v>21.6893039049236</v>
       </c>
       <c r="N3" s="1">
-        <v>23.58186397984887</v>
+        <v>21.6893039049236</v>
       </c>
       <c r="P3" t="s">
         <v>4</v>
       </c>
       <c r="Q3">
-        <v>12342</v>
+        <v>26999</v>
       </c>
       <c r="R3" s="1">
-        <v>25.39244933648802</v>
+        <v>22.14466744859376</v>
       </c>
       <c r="S3" s="1">
-        <v>25.39244933648802</v>
+        <v>22.14466744859376</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3602,49 +3602,49 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>2422</v>
+        <v>18221</v>
       </c>
       <c r="C4" s="1">
-        <v>13.06364617044229</v>
+        <v>18.68264823795999</v>
       </c>
       <c r="D4" s="1">
-        <v>39.82200647249191</v>
+        <v>40.85451506731332</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
       <c r="G4">
-        <v>1412</v>
+        <v>2358</v>
       </c>
       <c r="H4" s="1">
-        <v>13.8228095937347</v>
+        <v>18.6964795432921</v>
       </c>
       <c r="I4" s="1">
-        <v>40.25452765540871</v>
+        <v>41.05613701236917</v>
       </c>
       <c r="K4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L4">
-        <v>2392</v>
+        <v>2211</v>
       </c>
       <c r="M4" s="1">
-        <v>12.05037783375315</v>
+        <v>18.76910016977929</v>
       </c>
       <c r="N4" s="1">
-        <v>35.63224181360201</v>
+        <v>40.45840407470288</v>
       </c>
       <c r="P4" t="s">
         <v>8</v>
       </c>
       <c r="Q4">
-        <v>5921</v>
+        <v>22790</v>
       </c>
       <c r="R4" s="1">
-        <v>12.18187429276823</v>
+        <v>18.6924319846458</v>
       </c>
       <c r="S4" s="1">
-        <v>37.57432362925625</v>
+        <v>40.83709943323956</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3652,49 +3652,49 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2285</v>
+        <v>14568</v>
       </c>
       <c r="C5" s="1">
-        <v>12.32470334412082</v>
+        <v>14.93709563309375</v>
       </c>
       <c r="D5" s="1">
-        <v>52.14670981661273</v>
+        <v>55.79161070040706</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
       <c r="G5">
-        <v>1246</v>
+        <v>1936</v>
       </c>
       <c r="H5" s="1">
-        <v>12.19774840920215</v>
+        <v>15.35045987947986</v>
       </c>
       <c r="I5" s="1">
-        <v>52.45227606461086</v>
+        <v>56.40659689184903</v>
       </c>
       <c r="K5" t="s">
         <v>6</v>
       </c>
       <c r="L5">
-        <v>2384</v>
+        <v>1724</v>
       </c>
       <c r="M5" s="1">
-        <v>12.01007556675063</v>
+        <v>14.63497453310696</v>
       </c>
       <c r="N5" s="1">
-        <v>47.64231738035264</v>
+        <v>55.09337860780985</v>
       </c>
       <c r="P5" t="s">
         <v>6</v>
       </c>
       <c r="Q5">
-        <v>5915</v>
+        <v>18228</v>
       </c>
       <c r="R5" s="1">
-        <v>12.16952988375681</v>
+        <v>14.95066477473118</v>
       </c>
       <c r="S5" s="1">
-        <v>49.74385351301306</v>
+        <v>55.78776420797074</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3702,49 +3702,49 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1928</v>
+        <v>9704</v>
       </c>
       <c r="C6" s="1">
-        <v>10.39913700107875</v>
+        <v>9.949861066964697</v>
       </c>
       <c r="D6" s="1">
-        <v>62.54584681769148</v>
+        <v>65.74147176737176</v>
       </c>
       <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>1248</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9.895337773549</v>
+      </c>
+      <c r="I6" s="1">
+        <v>66.30193466539804</v>
+      </c>
+      <c r="K6" t="s">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>1043</v>
-      </c>
-      <c r="H6" s="1">
-        <v>10.21047479197259</v>
-      </c>
-      <c r="I6" s="1">
-        <v>62.66275085658345</v>
-      </c>
-      <c r="K6" t="s">
-        <v>8</v>
-      </c>
       <c r="L6">
-        <v>2087</v>
+        <v>1250</v>
       </c>
       <c r="M6" s="1">
-        <v>10.51385390428212</v>
+        <v>10.61120543293718</v>
       </c>
       <c r="N6" s="1">
-        <v>58.15617128463476</v>
+        <v>65.70458404074702</v>
       </c>
       <c r="P6" t="s">
         <v>5</v>
       </c>
       <c r="Q6">
-        <v>5363</v>
+        <v>12201</v>
       </c>
       <c r="R6" s="1">
-        <v>11.03384425470631</v>
+        <v>10.00729980889264</v>
       </c>
       <c r="S6" s="1">
-        <v>60.77769776771937</v>
+        <v>65.79506401686338</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3752,249 +3752,249 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1456</v>
+        <v>9618</v>
       </c>
       <c r="C7" s="1">
-        <v>7.853290183387271</v>
+        <v>9.861682166330015</v>
       </c>
       <c r="D7" s="1">
-        <v>70.39913700107874</v>
+        <v>75.60315393370178</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>774</v>
+        <v>1247</v>
       </c>
       <c r="H7" s="1">
-        <v>7.577092511013215</v>
+        <v>9.887408816999683</v>
       </c>
       <c r="I7" s="1">
-        <v>70.23984336759666</v>
+        <v>76.18934348239772</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
       </c>
       <c r="L7">
-        <v>1906</v>
+        <v>1153</v>
       </c>
       <c r="M7" s="1">
-        <v>9.602015113350127</v>
+        <v>9.787775891341257</v>
       </c>
       <c r="N7" s="1">
-        <v>67.75818639798489</v>
+        <v>75.49235993208828</v>
       </c>
       <c r="P7" t="s">
         <v>11</v>
       </c>
       <c r="Q7">
-        <v>4136</v>
+        <v>12019</v>
       </c>
       <c r="R7" s="1">
-        <v>8.509412611871205</v>
+        <v>9.858022818054314</v>
       </c>
       <c r="S7" s="1">
-        <v>69.28711037959059</v>
+        <v>75.65308683491769</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>1256</v>
+        <v>3803</v>
       </c>
       <c r="C8" s="1">
-        <v>6.774541531823084</v>
+        <v>3.899353012949994</v>
       </c>
       <c r="D8" s="1">
-        <v>77.17367853290183</v>
+        <v>79.50250694665178</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>601</v>
+        <v>491</v>
       </c>
       <c r="H8" s="1">
-        <v>5.883504650024474</v>
+        <v>3.893117665715192</v>
       </c>
       <c r="I8" s="1">
-        <v>76.12334801762114</v>
+        <v>80.08246114811291</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
       </c>
       <c r="L8">
-        <v>1331</v>
+        <v>498</v>
       </c>
       <c r="M8" s="1">
-        <v>6.70528967254408</v>
+        <v>4.227504244482174</v>
       </c>
       <c r="N8" s="1">
-        <v>74.46347607052897</v>
+        <v>79.71986417657045</v>
       </c>
       <c r="P8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q8">
-        <v>2372</v>
+        <v>4764</v>
       </c>
       <c r="R8" s="1">
-        <v>4.880156362514144</v>
+        <v>3.907448265680236</v>
       </c>
       <c r="S8" s="1">
-        <v>74.16726674210473</v>
+        <v>79.56053510059792</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>738</v>
+        <v>3786</v>
       </c>
       <c r="C9" s="1">
-        <v>3.980582524271845</v>
+        <v>3.881922300033836</v>
       </c>
       <c r="D9" s="1">
-        <v>81.15426105717367</v>
+        <v>83.38442924668561</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="H9" s="1">
-        <v>4.180127263827704</v>
+        <v>3.805899143672693</v>
       </c>
       <c r="I9" s="1">
-        <v>80.30347528144884</v>
+        <v>83.8883602917856</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L9">
-        <v>1032</v>
+        <v>490</v>
       </c>
       <c r="M9" s="1">
-        <v>5.198992443324937</v>
+        <v>4.159592529711375</v>
       </c>
       <c r="N9" s="1">
-        <v>79.66246851385391</v>
+        <v>83.87945670628183</v>
       </c>
       <c r="P9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q9">
-        <v>2197</v>
+        <v>4760</v>
       </c>
       <c r="R9" s="1">
-        <v>4.520111099681102</v>
+        <v>3.904167452694777</v>
       </c>
       <c r="S9" s="1">
-        <v>78.68737784178583</v>
+        <v>83.4647025532927</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>700</v>
+        <v>3612</v>
       </c>
       <c r="C10" s="1">
-        <v>3.775620280474649</v>
+        <v>3.703513826656687</v>
       </c>
       <c r="D10" s="1">
-        <v>84.92988133764833</v>
+        <v>87.0879430733423</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="H10" s="1">
-        <v>4.131179637787567</v>
+        <v>3.702822708531557</v>
       </c>
       <c r="I10" s="1">
-        <v>84.43465491923641</v>
+        <v>87.59118300031716</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L10">
-        <v>723</v>
+        <v>425</v>
       </c>
       <c r="M10" s="1">
-        <v>3.642317380352645</v>
+        <v>3.607809847198642</v>
       </c>
       <c r="N10" s="1">
-        <v>83.30478589420656</v>
+        <v>87.48726655348047</v>
       </c>
       <c r="P10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q10">
-        <v>2010</v>
+        <v>4528</v>
       </c>
       <c r="R10" s="1">
-        <v>4.135377018825224</v>
+        <v>3.713880299538225</v>
       </c>
       <c r="S10" s="1">
-        <v>82.82275486061106</v>
+        <v>87.17858285283093</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>482</v>
+        <v>3555</v>
       </c>
       <c r="C11" s="1">
-        <v>2.599784250269687</v>
+        <v>3.645069671584862</v>
       </c>
       <c r="D11" s="1">
-        <v>87.52966558791802</v>
+        <v>90.73301274492717</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>289</v>
+        <v>421</v>
       </c>
       <c r="H11" s="1">
-        <v>2.829172785119922</v>
+        <v>3.338090707262924</v>
       </c>
       <c r="I11" s="1">
-        <v>87.26382770435633</v>
+        <v>90.92927370758008</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L11">
-        <v>646</v>
+        <v>407</v>
       </c>
       <c r="M11" s="1">
-        <v>3.2544080604534</v>
+        <v>3.455008488964347</v>
       </c>
       <c r="N11" s="1">
-        <v>86.55919395465996</v>
+        <v>90.94227504244482</v>
       </c>
       <c r="P11" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="Q11">
-        <v>1561</v>
+        <v>4383</v>
       </c>
       <c r="R11" s="1">
-        <v>3.211603744470733</v>
+        <v>3.594950828815381</v>
       </c>
       <c r="S11" s="1">
-        <v>86.03435860508179</v>
+        <v>90.77353368164631</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4002,446 +4002,446 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>473</v>
+        <v>3235</v>
       </c>
       <c r="C12" s="1">
-        <v>2.551240560949299</v>
+        <v>3.316962134339529</v>
       </c>
       <c r="D12" s="1">
-        <v>90.08090614886731</v>
+        <v>94.0499748792667</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12">
-        <v>261</v>
+        <v>403</v>
       </c>
       <c r="H12" s="1">
-        <v>2.555066079295154</v>
+        <v>3.195369489375198</v>
       </c>
       <c r="I12" s="1">
-        <v>89.81889378365149</v>
+        <v>94.12464319695528</v>
       </c>
       <c r="K12" t="s">
         <v>15</v>
       </c>
       <c r="L12">
-        <v>591</v>
+        <v>375</v>
       </c>
       <c r="M12" s="1">
-        <v>2.977329974811083</v>
+        <v>3.183361629881155</v>
       </c>
       <c r="N12" s="1">
-        <v>89.53652392947104</v>
+        <v>94.12563667232598</v>
       </c>
       <c r="P12" t="s">
         <v>16</v>
       </c>
       <c r="Q12">
-        <v>1457</v>
+        <v>4012</v>
       </c>
       <c r="R12" s="1">
-        <v>2.997633988272812</v>
+        <v>3.29065542441417</v>
       </c>
       <c r="S12" s="1">
-        <v>89.0319925933546</v>
+        <v>94.06418910606048</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>435</v>
+        <v>2913</v>
       </c>
       <c r="C13" s="1">
-        <v>2.346278317152104</v>
+        <v>2.986803924986414</v>
       </c>
       <c r="D13" s="1">
-        <v>92.42718446601941</v>
+        <v>97.03677880425312</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G13">
-        <v>260</v>
+        <v>371</v>
       </c>
       <c r="H13" s="1">
-        <v>2.545276554087127</v>
+        <v>2.941642879797019</v>
       </c>
       <c r="I13" s="1">
-        <v>92.36417033773861</v>
+        <v>97.06628607675229</v>
       </c>
       <c r="K13" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L13">
-        <v>515</v>
+        <v>374</v>
       </c>
       <c r="M13" s="1">
-        <v>2.594458438287154</v>
+        <v>3.174872665534804</v>
       </c>
       <c r="N13" s="1">
-        <v>92.13098236775819</v>
+        <v>97.30050933786079</v>
       </c>
       <c r="P13" t="s">
         <v>15</v>
       </c>
       <c r="Q13">
-        <v>1362</v>
+        <v>3659</v>
       </c>
       <c r="R13" s="1">
-        <v>2.802180845592017</v>
+        <v>3.001123678447519</v>
       </c>
       <c r="S13" s="1">
-        <v>91.83417343894662</v>
+        <v>97.065312784508</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>423</v>
+        <v>1172</v>
       </c>
       <c r="C14" s="1">
-        <v>2.281553398058252</v>
+        <v>1.201693855161029</v>
       </c>
       <c r="D14" s="1">
-        <v>94.70873786407766</v>
+        <v>98.23847265941414</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G14">
-        <v>256</v>
+        <v>161</v>
       </c>
       <c r="H14" s="1">
-        <v>2.506118453255017</v>
+        <v>1.276562004440216</v>
       </c>
       <c r="I14" s="1">
-        <v>94.87028879099363</v>
+        <v>98.34284808119251</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L14">
-        <v>439</v>
+        <v>142</v>
       </c>
       <c r="M14" s="1">
-        <v>2.211586901763224</v>
+        <v>1.205432937181664</v>
       </c>
       <c r="N14" s="1">
-        <v>94.34256926952142</v>
+        <v>98.50594227504246</v>
       </c>
       <c r="P14" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q14">
-        <v>1341</v>
+        <v>1475</v>
       </c>
       <c r="R14" s="1">
-        <v>2.758975414052052</v>
+        <v>1.209799788387562</v>
       </c>
       <c r="S14" s="1">
-        <v>94.59314885299867</v>
+        <v>98.27511257289555</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>318</v>
+        <v>856</v>
       </c>
       <c r="C15" s="1">
-        <v>1.715210355987055</v>
+        <v>0.8776876621312635</v>
       </c>
       <c r="D15" s="1">
-        <v>96.42394822006472</v>
+        <v>99.11616032154541</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="H15" s="1">
-        <v>1.703377386196769</v>
+        <v>0.8246114811290833</v>
       </c>
       <c r="I15" s="1">
-        <v>96.57366617719039</v>
+        <v>99.1674595623216</v>
       </c>
       <c r="K15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15">
-        <v>410</v>
+        <v>96</v>
       </c>
       <c r="M15" s="1">
-        <v>2.065491183879093</v>
+        <v>0.8149405772495755</v>
       </c>
       <c r="N15" s="1">
-        <v>96.40806045340051</v>
+        <v>99.32088285229203</v>
       </c>
       <c r="P15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q15">
-        <v>902</v>
+        <v>1056</v>
       </c>
       <c r="R15" s="1">
-        <v>1.855776154716593</v>
+        <v>0.8661346281608582</v>
       </c>
       <c r="S15" s="1">
-        <v>96.44892500771526</v>
+        <v>99.14124720105642</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>297</v>
+        <v>480</v>
       </c>
       <c r="C16" s="1">
-        <v>1.601941747572815</v>
+        <v>0.4921613058679983</v>
       </c>
       <c r="D16" s="1">
-        <v>98.02588996763753</v>
+        <v>99.6083216274134</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="H16" s="1">
-        <v>1.566324033284386</v>
+        <v>0.4836663495084047</v>
       </c>
       <c r="I16" s="1">
-        <v>98.13999021047478</v>
+        <v>99.65112591183001</v>
       </c>
       <c r="K16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L16">
-        <v>405</v>
+        <v>49</v>
       </c>
       <c r="M16" s="1">
-        <v>2.040302267002519</v>
+        <v>0.4159592529711376</v>
       </c>
       <c r="N16" s="1">
-        <v>98.44836272040303</v>
+        <v>99.73684210526316</v>
       </c>
       <c r="P16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q16">
-        <v>862</v>
+        <v>590</v>
       </c>
       <c r="R16" s="1">
-        <v>1.773480094640469</v>
+        <v>0.4839199153550249</v>
       </c>
       <c r="S16" s="1">
-        <v>98.22240510235574</v>
+        <v>99.62516711641145</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>259</v>
+        <v>346</v>
       </c>
       <c r="C17" s="1">
-        <v>1.39697950377562</v>
+        <v>0.3547662746465154</v>
       </c>
       <c r="D17" s="1">
-        <v>99.42286947141315</v>
+        <v>99.96308790205993</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="H17" s="1">
-        <v>1.145374449339207</v>
+        <v>0.3330161750713606</v>
       </c>
       <c r="I17" s="1">
-        <v>99.28536465981398</v>
+        <v>99.98414208690137</v>
       </c>
       <c r="K17" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L17">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="M17" s="1">
-        <v>1.133501259445844</v>
+        <v>0.2546689303904924</v>
       </c>
       <c r="N17" s="1">
-        <v>99.58186397984888</v>
+        <v>99.99151103565366</v>
       </c>
       <c r="P17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q17">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="R17" s="1">
-        <v>0.8579364262935911</v>
+        <v>0.3428449569803397</v>
       </c>
       <c r="S17" s="1">
-        <v>99.08034152864933</v>
+        <v>99.96801207339179</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1">
-        <v>0.4800431499460626</v>
+        <v>0.03691209794009987</v>
       </c>
       <c r="D18" s="1">
-        <v>99.90291262135921</v>
+        <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G18">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1">
-        <v>0.6852667645619187</v>
+        <v>0.01585791309863622</v>
       </c>
       <c r="I18" s="1">
-        <v>99.9706314243759</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s">
         <v>17</v>
       </c>
       <c r="L18">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1">
-        <v>0.2065491183879093</v>
+        <v>0.008488964346349746</v>
       </c>
       <c r="N18" s="1">
-        <v>99.78841309823679</v>
+        <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Q18">
-        <v>384</v>
+        <v>39</v>
       </c>
       <c r="R18" s="1">
-        <v>0.790042176730789</v>
+        <v>0.03198792660821351</v>
       </c>
       <c r="S18" s="1">
-        <v>99.87038370538012</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>0.08090614886731393</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>99.98381877022652</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>0.01957905041605482</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>99.99021047479195</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>0.1914357682619647</v>
+        <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>99.97984886649876</v>
+        <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q19">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="R19" s="1">
-        <v>0.1131570826046703</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>99.98354078798479</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>0.01618122977346278</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>0.00978952520802741</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>99.99999999999997</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M20" s="1">
-        <v>0.02015113350125945</v>
+        <v>0</v>
       </c>
       <c r="N20" s="1">
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>0.01645921201522477</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1">
         <v>100</v>
@@ -4449,7 +4449,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -4473,7 +4473,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -4485,7 +4485,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -4591,37 +4591,37 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>28.75179767447572</v>
+        <v>27.22296651691029</v>
       </c>
       <c r="C3" s="1">
-        <v>28.75179767447572</v>
+        <v>27.22296651691029</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1">
-        <v>28.85860200417774</v>
+        <v>27.50124847331209</v>
       </c>
       <c r="G3" s="1">
-        <v>28.85860200417774</v>
+        <v>27.50124847331209</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="1">
-        <v>24.61253480704742</v>
+        <v>24.69597503547621</v>
       </c>
       <c r="K3" s="1">
-        <v>24.61253480704742</v>
+        <v>24.69597503547621</v>
       </c>
       <c r="M3" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="1">
-        <v>28.17229895769826</v>
+        <v>27.21496887722425</v>
       </c>
       <c r="O3" s="1">
-        <v>28.17229895769826</v>
+        <v>27.21496887722425</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4629,37 +4629,37 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>15.256237487604</v>
+        <v>15.10647884289932</v>
       </c>
       <c r="C4" s="1">
-        <v>44.00803516207972</v>
+        <v>42.3294453598096</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="1">
-        <v>14.92952424896902</v>
+        <v>14.82183559064472</v>
       </c>
       <c r="G4" s="1">
-        <v>43.78812625314676</v>
+        <v>42.32308406395681</v>
       </c>
       <c r="I4" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="1">
-        <v>17.29885804814722</v>
+        <v>16.71849416571846</v>
       </c>
       <c r="K4" s="1">
-        <v>41.91139285519465</v>
+        <v>41.41446920119466</v>
       </c>
       <c r="M4" t="s">
         <v>5</v>
       </c>
       <c r="N4" s="1">
-        <v>15.28356588223023</v>
+        <v>14.86879323206534</v>
       </c>
       <c r="O4" s="1">
-        <v>43.45586483992849</v>
+        <v>42.08376210928959</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4667,37 +4667,37 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>13.57360482319852</v>
+        <v>14.44440225285616</v>
       </c>
       <c r="C5" s="1">
-        <v>57.58163998527824</v>
+        <v>56.77384761266576</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="1">
-        <v>13.46010378768745</v>
+        <v>14.51100761111335</v>
       </c>
       <c r="G5" s="1">
-        <v>57.24823004083421</v>
+        <v>56.83409167507016</v>
       </c>
       <c r="I5" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="1">
-        <v>12.15831416187834</v>
+        <v>12.78356694078332</v>
       </c>
       <c r="K5" s="1">
-        <v>54.06970701707299</v>
+        <v>54.19803614197798</v>
       </c>
       <c r="M5" t="s">
         <v>6</v>
       </c>
       <c r="N5" s="1">
-        <v>13.46536087700697</v>
+        <v>14.41438411461515</v>
       </c>
       <c r="O5" s="1">
-        <v>56.92122571693547</v>
+        <v>56.49814622390475</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4705,37 +4705,37 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>8.641220822058294</v>
+        <v>10.51422151123086</v>
       </c>
       <c r="C6" s="1">
-        <v>66.22286080733653</v>
+        <v>67.28806912389662</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1">
-        <v>8.892768930659608</v>
+        <v>10.51732558051207</v>
       </c>
       <c r="G6" s="1">
-        <v>66.14099897149381</v>
+        <v>67.35141725558223</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1">
-        <v>7.39697354536074</v>
+        <v>7.834706881343942</v>
       </c>
       <c r="K6" s="1">
-        <v>61.46668056243372</v>
+        <v>62.03274302332192</v>
       </c>
       <c r="M6" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="1">
-        <v>8.247983684630418</v>
+        <v>10.53481222280246</v>
       </c>
       <c r="O6" s="1">
-        <v>65.16920940156588</v>
+        <v>67.03295844670721</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4743,37 +4743,37 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>6.104131798326783</v>
+        <v>6.773595792641031</v>
       </c>
       <c r="C7" s="1">
-        <v>72.32699260566332</v>
+        <v>74.06166491653765</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1">
-        <v>5.906837248588592</v>
+        <v>6.679585669433854</v>
       </c>
       <c r="G7" s="1">
-        <v>72.0478362200824</v>
+        <v>74.03100292501608</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1">
-        <v>5.779737631982695</v>
+        <v>7.122006424795797</v>
       </c>
       <c r="K7" s="1">
-        <v>67.24641819441642</v>
+        <v>69.15474944811771</v>
       </c>
       <c r="M7" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="1">
-        <v>6.374995198124652</v>
+        <v>6.743065106362259</v>
       </c>
       <c r="O7" s="1">
-        <v>71.54420459969053</v>
+        <v>73.77602355306948</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -4781,113 +4781,113 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>5.081441060561208</v>
+        <v>4.038283773815134</v>
       </c>
       <c r="C8" s="1">
-        <v>77.40843366622452</v>
+        <v>78.09994869035279</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1">
-        <v>4.467271331381611</v>
+        <v>4.191047068722739</v>
       </c>
       <c r="G8" s="1">
-        <v>76.51510755146401</v>
+        <v>78.22204999373882</v>
       </c>
       <c r="I8" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="1">
-        <v>5.2387761818714</v>
+        <v>5.601292458676785</v>
       </c>
       <c r="K8" s="1">
-        <v>72.48519437628782</v>
+        <v>74.75604190679449</v>
       </c>
       <c r="M8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N8" s="1">
-        <v>4.345391565257649</v>
+        <v>4.004730357933107</v>
       </c>
       <c r="O8" s="1">
-        <v>75.88959616494817</v>
+        <v>77.78075391100259</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>3.968123150296533</v>
+        <v>3.932511232910082</v>
       </c>
       <c r="C9" s="1">
-        <v>81.37655681652106</v>
+        <v>82.03245992326288</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1">
-        <v>4.286716934760243</v>
+        <v>4.02572289468945</v>
       </c>
       <c r="G9" s="1">
-        <v>80.80182448622426</v>
+        <v>82.24777288842827</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <v>4.968748521027709</v>
+        <v>4.865645786121418</v>
       </c>
       <c r="K9" s="1">
-        <v>77.45394289731553</v>
+        <v>79.62168769291591</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N9" s="1">
-        <v>4.310302243569951</v>
+        <v>3.989320633849654</v>
       </c>
       <c r="O9" s="1">
-        <v>80.19989840851812</v>
+        <v>81.77007454485225</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>3.92847184760277</v>
+        <v>3.875766917758147</v>
       </c>
       <c r="C10" s="1">
-        <v>85.30502866412382</v>
+        <v>85.90822684102102</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1">
-        <v>4.092923033040621</v>
+        <v>3.618800017127762</v>
       </c>
       <c r="G10" s="1">
-        <v>84.89474751926488</v>
+        <v>85.86657290555604</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1">
-        <v>4.316053780413842</v>
+        <v>3.813270609565825</v>
       </c>
       <c r="K10" s="1">
-        <v>81.76999667772937</v>
+        <v>83.43495830248173</v>
       </c>
       <c r="M10" t="s">
         <v>7</v>
       </c>
       <c r="N10" s="1">
-        <v>3.955988228172045</v>
+        <v>3.978930139742788</v>
       </c>
       <c r="O10" s="1">
-        <v>84.15588663669017</v>
+        <v>85.74900468459504</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -4895,37 +4895,37 @@
         <v>17</v>
       </c>
       <c r="B11" s="1">
-        <v>3.365503555844865</v>
+        <v>2.912147753899692</v>
       </c>
       <c r="C11" s="1">
-        <v>88.67053221996869</v>
+        <v>88.82037459492071</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="1">
-        <v>3.429241890817963</v>
+        <v>3.052736378737772</v>
       </c>
       <c r="G11" s="1">
-        <v>88.32398941008285</v>
+        <v>88.91930928429382</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1">
-        <v>4.285677808294475</v>
+        <v>3.437130352994774</v>
       </c>
       <c r="K11" s="1">
-        <v>86.05567448602385</v>
+        <v>86.8720886554765</v>
       </c>
       <c r="M11" t="s">
         <v>17</v>
       </c>
       <c r="N11" s="1">
-        <v>3.290382318115799</v>
+        <v>2.979347158548776</v>
       </c>
       <c r="O11" s="1">
-        <v>87.44626895480597</v>
+        <v>88.72835184314381</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -4933,37 +4933,37 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>2.331199070212649</v>
+        <v>2.848890635478613</v>
       </c>
       <c r="C12" s="1">
-        <v>91.00173129018134</v>
+        <v>91.66926523039932</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="1">
-        <v>2.469947537561012</v>
+        <v>2.855796255709155</v>
       </c>
       <c r="G12" s="1">
-        <v>90.79393694764386</v>
+        <v>91.77510554000297</v>
       </c>
       <c r="I12" t="s">
         <v>9</v>
       </c>
       <c r="J12" s="1">
-        <v>2.877403320485114</v>
+        <v>3.321443050834185</v>
       </c>
       <c r="K12" s="1">
-        <v>88.93307780650896</v>
+        <v>90.19353170631069</v>
       </c>
       <c r="M12" t="s">
         <v>10</v>
       </c>
       <c r="N12" s="1">
-        <v>2.547966206942849</v>
+        <v>2.855436080520048</v>
       </c>
       <c r="O12" s="1">
-        <v>89.99423516174882</v>
+        <v>91.58378792366386</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -4971,37 +4971,37 @@
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>2.20566323976333</v>
+        <v>2.334669798002239</v>
       </c>
       <c r="C13" s="1">
-        <v>93.20739452994466</v>
+        <v>94.00393502840156</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="1">
-        <v>2.411180940747779</v>
+        <v>2.448670972306811</v>
       </c>
       <c r="G13" s="1">
-        <v>93.20511788839164</v>
+        <v>94.22377651230978</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="1">
-        <v>2.8541511210644</v>
+        <v>2.658889097107578</v>
       </c>
       <c r="K13" s="1">
-        <v>91.78722892757337</v>
+        <v>92.85242080341827</v>
       </c>
       <c r="M13" t="s">
         <v>15</v>
       </c>
       <c r="N13" s="1">
-        <v>2.325991310532126</v>
+        <v>2.402530639854269</v>
       </c>
       <c r="O13" s="1">
-        <v>92.32022647228095</v>
+        <v>93.98631856351813</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -5009,75 +5009,75 @@
         <v>16</v>
       </c>
       <c r="B14" s="1">
-        <v>1.711691007692669</v>
+        <v>1.966931532156079</v>
       </c>
       <c r="C14" s="1">
-        <v>94.91908553763733</v>
+        <v>95.97086656055764</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1">
-        <v>1.779468541181346</v>
+        <v>1.807098319505528</v>
       </c>
       <c r="G14" s="1">
-        <v>94.98458642957299</v>
+        <v>96.03087483181531</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1">
-        <v>2.402140473278812</v>
+        <v>2.222290562708861</v>
       </c>
       <c r="K14" s="1">
-        <v>94.18936940085217</v>
+        <v>95.07471136612713</v>
       </c>
       <c r="M14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N14" s="1">
-        <v>1.960751096849378</v>
+        <v>1.973974103908105</v>
       </c>
       <c r="O14" s="1">
-        <v>94.28097756913033</v>
+        <v>95.96029266742623</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1.661136429043271</v>
+        <v>1.778344452354374</v>
       </c>
       <c r="C15" s="1">
-        <v>96.5802219666806</v>
+        <v>97.74921101291201</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1">
-        <v>1.593663849478847</v>
+        <v>1.729292712530662</v>
       </c>
       <c r="G15" s="1">
-        <v>96.57825027905183</v>
+        <v>97.76016754434598</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1">
-        <v>2.127369637471264</v>
+        <v>2.047768065019514</v>
       </c>
       <c r="K15" s="1">
-        <v>96.31673903832343</v>
+        <v>97.12247943114664</v>
       </c>
       <c r="M15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N15" s="1">
-        <v>1.905963041245896</v>
+        <v>1.782647568554563</v>
       </c>
       <c r="O15" s="1">
-        <v>96.18694061037623</v>
+        <v>97.7429402359808</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -5085,189 +5085,189 @@
         <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>1.557410600418398</v>
+        <v>1.31599257193788</v>
       </c>
       <c r="C16" s="1">
-        <v>98.13763256709899</v>
+        <v>99.0652035848499</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="1">
-        <v>1.495493919368536</v>
+        <v>1.248256401983435</v>
       </c>
       <c r="G16" s="1">
-        <v>98.07374419842037</v>
+        <v>99.00842394632942</v>
       </c>
       <c r="I16" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="1">
-        <v>1.949842804923993</v>
+        <v>1.770969926005895</v>
       </c>
       <c r="K16" s="1">
-        <v>98.26658184324742</v>
+        <v>98.89344935715253</v>
       </c>
       <c r="M16" t="s">
         <v>13</v>
       </c>
       <c r="N16" s="1">
-        <v>1.664427377404709</v>
+        <v>1.328782814929061</v>
       </c>
       <c r="O16" s="1">
-        <v>97.85136798778093</v>
+        <v>99.07172305090985</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
-        <v>1.244888151695846</v>
+        <v>0.8031609539387309</v>
       </c>
       <c r="C17" s="1">
-        <v>99.38252071879484</v>
+        <v>99.86836453878863</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1">
-        <v>1.296032482391436</v>
+        <v>0.827929330065562</v>
       </c>
       <c r="G17" s="1">
-        <v>99.36977668081181</v>
+        <v>99.83635327639497</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1">
-        <v>0.8358416080693271</v>
+        <v>0.6084609202195572</v>
       </c>
       <c r="K17" s="1">
-        <v>99.10242345131675</v>
+        <v>99.50191027737209</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N17" s="1">
-        <v>1.463056873064888</v>
+        <v>0.7887551609842104</v>
       </c>
       <c r="O17" s="1">
-        <v>99.31442486084582</v>
+        <v>99.86047821189406</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>0.5717367853290184</v>
+        <v>0.1267057101638029</v>
       </c>
       <c r="C18" s="1">
-        <v>99.95425750412386</v>
+        <v>99.99507024895243</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="1">
-        <v>0.5677924620655898</v>
+        <v>0.1346964601576414</v>
       </c>
       <c r="G18" s="1">
-        <v>99.93756914287739</v>
+        <v>99.97104973655262</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1">
-        <v>0.4130982367758186</v>
+        <v>0.3221000051144996</v>
       </c>
       <c r="K18" s="1">
-        <v>99.51552168809258</v>
+        <v>99.82401028248658</v>
       </c>
       <c r="M18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N18" s="1">
-        <v>0.6185920515721977</v>
+        <v>0.1242850859377761</v>
       </c>
       <c r="O18" s="1">
-        <v>99.93301691241801</v>
+        <v>99.98476329783183</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.004929751047572098</v>
+      </c>
+      <c r="C19" s="1">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.02895026344739737</v>
+      </c>
+      <c r="G19" s="1">
+        <v>100</v>
+      </c>
+      <c r="I19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.03541900157073575</v>
-      </c>
-      <c r="C19" s="1">
-        <v>99.98967650569459</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.03221343851673984</v>
-      </c>
-      <c r="G19" s="1">
-        <v>99.96978258139413</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
       <c r="J19" s="1">
-        <v>0.3261302318147515</v>
+        <v>0.1759897175133866</v>
       </c>
       <c r="K19" s="1">
-        <v>99.84165191990733</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N19" s="1">
-        <v>0.04625998140871509</v>
+        <v>0.01523670216818272</v>
       </c>
       <c r="O19" s="1">
-        <v>99.97927689382672</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>0.01032349430539303</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" s="1">
-        <v>0.03021741860587281</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J20" s="1">
-        <v>0.1583480800926761</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>100</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="M20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N20" s="1">
-        <v>0.02072310617325764</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
         <v>21</v>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>100</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="M21" t="s">
         <v>21</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="1">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data_exploration/acl/tag_stats/tag_stats_isolating.xlsx
+++ b/data_exploration/acl/tag_stats/tag_stats_isolating.xlsx
@@ -78,16 +78,16 @@
     <t>SYM</t>
   </si>
   <si>
-    <t>_</t>
+    <t>O</t>
   </si>
   <si>
     <t>SCONJ</t>
   </si>
   <si>
-    <t>O</t>
+    <t>INTJ</t>
   </si>
   <si>
-    <t>INTJ</t>
+    <t>_</t>
   </si>
   <si>
     <t>TRAIN</t>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -2543,7 +2543,7 @@
         <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -2555,7 +2555,7 @@
         <v>99.99999999999999</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L16">
         <v>7</v>
@@ -2567,7 +2567,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q16">
         <v>20</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2593,7 +2593,7 @@
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2805,7 +2805,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>216</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5176,7 +5176,7 @@
         <v>99.97104973655262</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1">
         <v>0.3221000051144996</v>
@@ -5196,7 +5196,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>0.004929751047572098</v>
@@ -5205,7 +5205,7 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="1">
         <v>0.02895026344739737</v>
@@ -5223,7 +5223,7 @@
         <v>99.99999999999997</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N19" s="1">
         <v>0.01523670216818272</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -5281,7 +5281,7 @@
         <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -5299,7 +5299,7 @@
         <v>99.99999999999997</v>
       </c>
       <c r="M21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
